--- a/VCB/LC.xlsx
+++ b/VCB/LC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN57"/>
+  <dimension ref="A1:BO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,11 @@
           <t>Q1/2025</t>
         </is>
       </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Q2/2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1096,6 +1101,11 @@
           <t>01/01-31/03</t>
         </is>
       </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>01/04-30/06</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1428,6 +1438,11 @@
           <t>Hợp nhất</t>
         </is>
       </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>Mới nhất</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1758,6 +1773,11 @@
       <c r="BN4" t="inlineStr">
         <is>
           <t>Chưa kiểm toán</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>VST Tính</t>
         </is>
       </c>
     </row>
@@ -1832,6 +1852,7 @@
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1904,6 +1925,7 @@
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -1972,6 +1994,7 @@
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2044,6 +2067,7 @@
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2372,6 +2396,11 @@
           <t>23693</t>
         </is>
       </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>26348</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2700,6 +2729,11 @@
           <t>-11670</t>
         </is>
       </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>-10627</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3028,6 +3062,11 @@
           <t>806</t>
         </is>
       </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3356,6 +3395,11 @@
           <t>-316</t>
         </is>
       </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3684,6 +3728,11 @@
           <t>-98</t>
         </is>
       </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>-57</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4012,6 +4061,11 @@
           <t>760</t>
         </is>
       </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4340,6 +4394,11 @@
           <t>-5686</t>
         </is>
       </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>-6800</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4668,6 +4727,11 @@
           <t>-4373</t>
         </is>
       </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>-2152</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4994,6 +5058,11 @@
       <c r="BN17" t="inlineStr">
         <is>
           <t>3115</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>9933</t>
         </is>
       </c>
     </row>
@@ -5068,6 +5137,7 @@
       <c r="BL18" t="inlineStr"/>
       <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5396,6 +5466,11 @@
           <t>-11117</t>
         </is>
       </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5722,6 +5797,11 @@
       <c r="BN20" t="inlineStr">
         <is>
           <t>-13135</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>15696</t>
         </is>
       </c>
     </row>
@@ -5960,6 +6040,7 @@
           <t>1314</t>
         </is>
       </c>
+      <c r="BO21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6288,6 +6369,11 @@
           <t>-17192</t>
         </is>
       </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>-89379</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6556,6 +6642,7 @@
           <t>-443</t>
         </is>
       </c>
+      <c r="BO23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6882,6 +6969,11 @@
       <c r="BN24" t="inlineStr">
         <is>
           <t>3906</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>-3589</t>
         </is>
       </c>
     </row>
@@ -6956,6 +7048,7 @@
       <c r="BL25" t="inlineStr"/>
       <c r="BM25" t="inlineStr"/>
       <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7284,6 +7377,11 @@
           <t>47061</t>
         </is>
       </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>-25561</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7612,6 +7710,11 @@
           <t>-11770</t>
         </is>
       </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>36322</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7940,6 +8043,11 @@
           <t>-5551</t>
         </is>
       </c>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>77569</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8250,6 +8358,11 @@
       <c r="BN29" t="inlineStr">
         <is>
           <t>-9960</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>10000</t>
         </is>
       </c>
     </row>
@@ -8456,6 +8569,7 @@
           <t>-1</t>
         </is>
       </c>
+      <c r="BO30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8700,6 +8814,11 @@
           <t>306</t>
         </is>
       </c>
+      <c r="BO31" t="inlineStr">
+        <is>
+          <t>-259</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9028,6 +9147,11 @@
           <t>1461</t>
         </is>
       </c>
+      <c r="BO32" t="inlineStr">
+        <is>
+          <t>3454</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9356,6 +9480,11 @@
           <t>-1177</t>
         </is>
       </c>
+      <c r="BO33" t="inlineStr">
+        <is>
+          <t>-583</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9682,6 +9811,11 @@
       <c r="BN34" t="inlineStr">
         <is>
           <t>-13181</t>
+        </is>
+      </c>
+      <c r="BO34" t="inlineStr">
+        <is>
+          <t>37917</t>
         </is>
       </c>
     </row>
@@ -9756,6 +9890,7 @@
       <c r="BL35" t="inlineStr"/>
       <c r="BM35" t="inlineStr"/>
       <c r="BN35" t="inlineStr"/>
+      <c r="BO35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10082,6 +10217,11 @@
       <c r="BN36" t="inlineStr">
         <is>
           <t>-186</t>
+        </is>
+      </c>
+      <c r="BO36" t="inlineStr">
+        <is>
+          <t>-195</t>
         </is>
       </c>
     </row>
@@ -10362,6 +10502,11 @@
       <c r="BN37" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="BO37" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -10520,6 +10665,7 @@
         </is>
       </c>
       <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10604,6 +10750,7 @@
       <c r="BL39" t="inlineStr"/>
       <c r="BM39" t="inlineStr"/>
       <c r="BN39" t="inlineStr"/>
+      <c r="BO39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10676,6 +10823,7 @@
       <c r="BL40" t="inlineStr"/>
       <c r="BM40" t="inlineStr"/>
       <c r="BN40" t="inlineStr"/>
+      <c r="BO40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10756,6 +10904,7 @@
       <c r="BL41" t="inlineStr"/>
       <c r="BM41" t="inlineStr"/>
       <c r="BN41" t="inlineStr"/>
+      <c r="BO41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10904,6 +11053,7 @@
       <c r="BL42" t="inlineStr"/>
       <c r="BM42" t="inlineStr"/>
       <c r="BN42" t="inlineStr"/>
+      <c r="BO42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11120,6 +11270,7 @@
       <c r="BL43" t="inlineStr"/>
       <c r="BM43" t="inlineStr"/>
       <c r="BN43" t="inlineStr"/>
+      <c r="BO43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11440,6 +11591,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="BO44" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11766,6 +11922,11 @@
       <c r="BN45" t="inlineStr">
         <is>
           <t>-175</t>
+        </is>
+      </c>
+      <c r="BO45" t="inlineStr">
+        <is>
+          <t>-179</t>
         </is>
       </c>
     </row>
@@ -11840,6 +12001,7 @@
       <c r="BL46" t="inlineStr"/>
       <c r="BM46" t="inlineStr"/>
       <c r="BN46" t="inlineStr"/>
+      <c r="BO46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11948,6 +12110,7 @@
       <c r="BL47" t="inlineStr"/>
       <c r="BM47" t="inlineStr"/>
       <c r="BN47" t="inlineStr"/>
+      <c r="BO47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12048,6 +12211,7 @@
       <c r="BL48" t="inlineStr"/>
       <c r="BM48" t="inlineStr"/>
       <c r="BN48" t="inlineStr"/>
+      <c r="BO48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12120,6 +12284,7 @@
       <c r="BL49" t="inlineStr"/>
       <c r="BM49" t="inlineStr"/>
       <c r="BN49" t="inlineStr"/>
+      <c r="BO49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12276,6 +12441,7 @@
         </is>
       </c>
       <c r="BN50" t="inlineStr"/>
+      <c r="BO50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12356,6 +12522,7 @@
       <c r="BL51" t="inlineStr"/>
       <c r="BM51" t="inlineStr"/>
       <c r="BN51" t="inlineStr"/>
+      <c r="BO51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12428,6 +12595,7 @@
       <c r="BL52" t="inlineStr"/>
       <c r="BM52" t="inlineStr"/>
       <c r="BN52" t="inlineStr"/>
+      <c r="BO52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12600,6 +12768,7 @@
         </is>
       </c>
       <c r="BN53" t="inlineStr"/>
+      <c r="BO53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12926,6 +13095,11 @@
       <c r="BN54" t="inlineStr">
         <is>
           <t>-13355</t>
+        </is>
+      </c>
+      <c r="BO54" t="inlineStr">
+        <is>
+          <t>37738</t>
         </is>
       </c>
     </row>
@@ -13100,6 +13274,7 @@
           <t>430614</t>
         </is>
       </c>
+      <c r="BO55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13188,6 +13363,7 @@
       <c r="BL56" t="inlineStr"/>
       <c r="BM56" t="inlineStr"/>
       <c r="BN56" t="inlineStr"/>
+      <c r="BO56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13498,6 +13674,11 @@
       <c r="BN57" t="inlineStr">
         <is>
           <t>417259</t>
+        </is>
+      </c>
+      <c r="BO57" t="inlineStr">
+        <is>
+          <t>37738</t>
         </is>
       </c>
     </row>
